--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10486,6 +10486,41 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I287" t="n">
+        <v>30400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10521,6 +10521,41 @@
         <v>30400</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I288" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10556,6 +10556,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10593,6 +10593,41 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I290" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10628,6 +10628,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10663,6 +10663,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I292" t="n">
+        <v>76200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I292"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10698,6 +10698,41 @@
         <v>76200</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I293" t="n">
+        <v>72100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10733,6 +10733,43 @@
         <v>72100</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10770,6 +10770,41 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I295" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10805,6 +10805,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I296" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I296"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10840,6 +10840,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I297" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10875,6 +10875,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I298" t="n">
+        <v>605000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10910,6 +10910,80 @@
         <v>605000</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10984,6 +10984,41 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I301" t="n">
+        <v>762700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11019,6 +11019,41 @@
         <v>762700</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1018400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11054,6 +11054,41 @@
         <v>1018400</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I303" t="n">
+        <v>560000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11089,6 +11089,41 @@
         <v>560000</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I304" t="n">
+        <v>640000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11124,6 +11124,76 @@
         <v>640000</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I305" t="n">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11194,6 +11194,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11231,6 +11231,41 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I308" t="n">
+        <v>260000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I308"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8747,11 +8747,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8765,28 +8765,28 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="F238" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="G238" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="H238" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="I238" t="n">
-        <v>55000</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8800,28 +8800,28 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="F239" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="H239" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="I239" t="n">
-        <v>103500</v>
+        <v>144100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8835,28 +8835,28 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="F240" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G240" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="H240" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="I240" t="n">
-        <v>1763000</v>
+        <v>198100</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8870,28 +8870,28 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="F241" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G241" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="H241" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="I241" t="n">
-        <v>64600</v>
+        <v>467900</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8905,28 +8905,28 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F242" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G242" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H242" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I242" t="n">
-        <v>974000</v>
+        <v>228300</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1575590400</v>
+        <v>1574726400</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8940,30 +8940,28 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="F243" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="H243" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I243" t="n">
+        <v>21800</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1575849600</v>
+        <v>1574812800</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8989,16 +8987,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I244" t="n">
-        <v>17000</v>
+        <v>302000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1575936000</v>
+        <v>1574899200</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9024,16 +9022,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I245" t="n">
-        <v>5000</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1576022400</v>
+        <v>1574985600</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9047,28 +9045,28 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F246" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H246" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I246" t="n">
-        <v>44400</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1576108800</v>
+        <v>1575244800</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9094,16 +9092,16 @@
         <v>0.075</v>
       </c>
       <c r="I247" t="n">
-        <v>127000</v>
+        <v>103500</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1576195200</v>
+        <v>1575331200</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9117,28 +9115,28 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F248" t="n">
         <v>0.075</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H248" t="n">
         <v>0.075</v>
       </c>
       <c r="I248" t="n">
-        <v>206000</v>
+        <v>1763000</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1576454400</v>
+        <v>1575417600</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9164,16 +9162,16 @@
         <v>0.075</v>
       </c>
       <c r="I249" t="n">
-        <v>4500</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1576540800</v>
+        <v>1575504000</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9199,16 +9197,16 @@
         <v>0.075</v>
       </c>
       <c r="I250" t="n">
-        <v>20000</v>
+        <v>974000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1576627200</v>
+        <v>1575590400</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9222,10 +9220,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F251" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G251" t="n">
         <v>0.075</v>
@@ -9233,17 +9231,19 @@
       <c r="H251" t="n">
         <v>0.075</v>
       </c>
-      <c r="I251" t="n">
-        <v>56900</v>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1576713600</v>
+        <v>1575849600</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9257,28 +9257,28 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F252" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H252" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I252" t="n">
-        <v>66800</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1576800000</v>
+        <v>1575936000</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9292,28 +9292,28 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F253" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G253" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H253" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I253" t="n">
-        <v>369800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1577059200</v>
+        <v>1576022400</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9327,28 +9327,28 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F254" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G254" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H254" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I254" t="n">
-        <v>81000</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1577145600</v>
+        <v>1576108800</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9374,16 +9374,16 @@
         <v>0.075</v>
       </c>
       <c r="I255" t="n">
-        <v>21000</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1577318400</v>
+        <v>1576195200</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9397,30 +9397,28 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F256" t="n">
         <v>0.075</v>
       </c>
       <c r="G256" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0.075</v>
       </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I256" t="n">
+        <v>206000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1577404800</v>
+        <v>1576454400</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9445,19 +9443,17 @@
       <c r="H257" t="n">
         <v>0.075</v>
       </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I257" t="n">
+        <v>4500</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1577664000</v>
+        <v>1576540800</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9482,19 +9478,17 @@
       <c r="H258" t="n">
         <v>0.075</v>
       </c>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I258" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1577750400</v>
+        <v>1576627200</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9508,28 +9502,28 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F259" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G259" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H259" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I259" t="n">
-        <v>52000</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1577923200</v>
+        <v>1576713600</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9555,16 +9549,16 @@
         <v>0.075</v>
       </c>
       <c r="I260" t="n">
-        <v>73800</v>
+        <v>66800</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1578009600</v>
+        <v>1576800000</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9590,16 +9584,16 @@
         <v>0.075</v>
       </c>
       <c r="I261" t="n">
-        <v>16900</v>
+        <v>369800</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1578268800</v>
+        <v>1577059200</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9625,16 +9619,16 @@
         <v>0.075</v>
       </c>
       <c r="I262" t="n">
-        <v>19000</v>
+        <v>81000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1578355200</v>
+        <v>1577145600</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9660,16 +9654,16 @@
         <v>0.075</v>
       </c>
       <c r="I263" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1578441600</v>
+        <v>1577318400</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9694,17 +9688,19 @@
       <c r="H264" t="n">
         <v>0.075</v>
       </c>
-      <c r="I264" t="n">
-        <v>10000</v>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1578528000</v>
+        <v>1577404800</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9718,28 +9714,30 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F265" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G265" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H265" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I265" t="n">
-        <v>89000</v>
+        <v>0.075</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1578614400</v>
+        <v>1577664000</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9753,28 +9751,30 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F266" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G266" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H266" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I266" t="n">
-        <v>273800</v>
+        <v>0.075</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1578873600</v>
+        <v>1577750400</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9788,28 +9788,28 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F267" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G267" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H267" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I267" t="n">
-        <v>79900</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1578960000</v>
+        <v>1577923200</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9823,28 +9823,28 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F268" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G268" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H268" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I268" t="n">
-        <v>100000</v>
+        <v>73800</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1579046400</v>
+        <v>1578009600</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9858,28 +9858,28 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F269" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G269" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H269" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I269" t="n">
-        <v>270000</v>
+        <v>16900</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1579132800</v>
+        <v>1578268800</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9893,28 +9893,28 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F270" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G270" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H270" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="I270" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1579219200</v>
+        <v>1578355200</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9928,30 +9928,28 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="F271" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G271" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="H271" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.075</v>
+      </c>
+      <c r="I271" t="n">
+        <v>26000</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1579478400</v>
+        <v>1578441600</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9977,16 +9975,16 @@
         <v>0.075</v>
       </c>
       <c r="I272" t="n">
-        <v>80000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1579564800</v>
+        <v>1578528000</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10000,28 +9998,28 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F273" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G273" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H273" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I273" t="n">
-        <v>10000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1579651200</v>
+        <v>1578614400</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10035,28 +10033,28 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F274" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G274" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H274" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I274" t="n">
-        <v>75000</v>
+        <v>273800</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1579737600</v>
+        <v>1578873600</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10070,30 +10068,28 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F275" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G275" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H275" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I275" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="I275" t="n">
+        <v>79900</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1579824000</v>
+        <v>1578960000</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10107,28 +10103,28 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F276" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G276" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H276" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I276" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1580169600</v>
+        <v>1579046400</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10142,30 +10138,28 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F277" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G277" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H277" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I277" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="I277" t="n">
+        <v>270000</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1580256000</v>
+        <v>1579132800</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10179,30 +10173,28 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F278" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G278" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H278" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="I278" t="n">
+        <v>11000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1580342400</v>
+        <v>1579219200</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10216,16 +10208,16 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="F279" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G279" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="H279" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
@@ -10235,11 +10227,11 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1580428800</v>
+        <v>1579478400</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10264,19 +10256,17 @@
       <c r="H280" t="n">
         <v>0.075</v>
       </c>
-      <c r="I280" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I280" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1580688000</v>
+        <v>1579564800</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10301,19 +10291,17 @@
       <c r="H281" t="n">
         <v>0.075</v>
       </c>
-      <c r="I281" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I281" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1580774400</v>
+        <v>1579651200</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10327,28 +10315,28 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F282" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G282" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H282" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I282" t="n">
-        <v>52000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1580860800</v>
+        <v>1579737600</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10373,17 +10361,19 @@
       <c r="H283" t="n">
         <v>0.075</v>
       </c>
-      <c r="I283" t="n">
-        <v>62000</v>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1580947200</v>
+        <v>1579824000</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10408,19 +10398,17 @@
       <c r="H284" t="n">
         <v>0.075</v>
       </c>
-      <c r="I284" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I284" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1581033600</v>
+        <v>1580169600</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10445,17 +10433,19 @@
       <c r="H285" t="n">
         <v>0.075</v>
       </c>
-      <c r="I285" t="n">
-        <v>61000</v>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1581292800</v>
+        <v>1580256000</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10488,11 +10478,11 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1581379200</v>
+        <v>1580342400</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10506,28 +10496,30 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F287" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G287" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H287" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I287" t="n">
-        <v>30400</v>
+        <v>0.075</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1581465600</v>
+        <v>1580428800</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10541,28 +10533,30 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F288" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G288" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H288" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3500</v>
+        <v>0.075</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1581552000</v>
+        <v>1580688000</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10576,16 +10570,16 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="F289" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G289" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="H289" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -10595,11 +10589,11 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1581638400</v>
+        <v>1580774400</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10625,16 +10619,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I290" t="n">
-        <v>20000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1581897600</v>
+        <v>1580860800</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10648,28 +10642,28 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="F291" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G291" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="H291" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I291" t="n">
-        <v>4000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1581984000</v>
+        <v>1580947200</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10683,28 +10677,30 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="F292" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G292" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="H292" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I292" t="n">
-        <v>76200</v>
+        <v>0.075</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1582070400</v>
+        <v>1581033600</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10718,28 +10714,28 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="F293" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G293" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="H293" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I293" t="n">
-        <v>72100</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1582156800</v>
+        <v>1581292800</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10753,16 +10749,16 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="F294" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G294" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="H294" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
@@ -10772,11 +10768,11 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1582243200</v>
+        <v>1581379200</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10790,28 +10786,28 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F295" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G295" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H295" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I295" t="n">
-        <v>30000</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1582502400</v>
+        <v>1581465600</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10825,28 +10821,28 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F296" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G296" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H296" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I296" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1582588800</v>
+        <v>1581552000</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10860,28 +10856,30 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F297" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G297" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H297" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I297" t="n">
-        <v>18000</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1582848000</v>
+        <v>1581638400</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10895,28 +10893,28 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F298" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G298" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H298" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I298" t="n">
-        <v>605000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1583107200</v>
+        <v>1581897600</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10941,19 +10939,17 @@
       <c r="H299" t="n">
         <v>0.065</v>
       </c>
-      <c r="I299" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I299" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1583193600</v>
+        <v>1581984000</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10978,19 +10974,17 @@
       <c r="H300" t="n">
         <v>0.065</v>
       </c>
-      <c r="I300" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I300" t="n">
+        <v>76200</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1583280000</v>
+        <v>1582070400</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11016,16 +11010,16 @@
         <v>0.065</v>
       </c>
       <c r="I301" t="n">
-        <v>762700</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1583366400</v>
+        <v>1582156800</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11050,17 +11044,19 @@
       <c r="H302" t="n">
         <v>0.065</v>
       </c>
-      <c r="I302" t="n">
-        <v>1018400</v>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1583452800</v>
+        <v>1582243200</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11086,16 +11082,16 @@
         <v>0.065</v>
       </c>
       <c r="I303" t="n">
-        <v>560000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1583712000</v>
+        <v>1582502400</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11109,28 +11105,28 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="F304" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G304" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="H304" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="I304" t="n">
-        <v>640000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1583798400</v>
+        <v>1582588800</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -11144,28 +11140,28 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="F305" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G305" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="H305" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="I305" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1583884800</v>
+        <v>1582848000</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -11179,28 +11175,28 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="F306" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="G306" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="H306" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="I306" t="n">
-        <v>10000</v>
+        <v>605000</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1583971200</v>
+        <v>1583107200</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -11214,16 +11210,16 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="F307" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="G307" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="H307" t="n">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
@@ -11233,36 +11229,320 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I309" t="n">
+        <v>762700</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1018400</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I311" t="n">
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I312" t="n">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I313" t="n">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I314" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B316" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>03016</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>CRG</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
         <v>0.03</v>
       </c>
-      <c r="F308" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G308" t="n">
+      <c r="F316" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G316" t="n">
         <v>0.03</v>
       </c>
-      <c r="H308" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I308" t="n">
+      <c r="H316" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I316" t="n">
         <v>260000</v>
       </c>
     </row>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11546,6 +11546,41 @@
         <v>260000</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I317" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11581,6 +11581,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11618,6 +11618,41 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I319" t="n">
+        <v>21200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11653,6 +11653,41 @@
         <v>21200</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I320" t="n">
+        <v>2973300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11688,6 +11688,41 @@
         <v>2973300</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I321" t="n">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11723,6 +11723,41 @@
         <v>55000</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I322" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11758,6 +11758,43 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11795,6 +11795,43 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11832,6 +11832,43 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11869,6 +11869,41 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I326" t="n">
+        <v>249000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11904,6 +11904,43 @@
         <v>249000</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11941,6 +11941,41 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I328" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11976,6 +11976,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I329" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12011,6 +12011,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12048,6 +12048,43 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12085,6 +12085,43 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12122,6 +12122,43 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12159,6 +12159,41 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I334" t="n">
+        <v>57000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12194,6 +12194,43 @@
         <v>57000</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12231,6 +12231,41 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I336" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12266,6 +12266,43 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12303,6 +12303,41 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12338,6 +12338,78 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I340" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12410,6 +12410,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12447,6 +12447,113 @@
         </is>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I342" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I344" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I344"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12554,6 +12554,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I345" t="n">
+        <v>44300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12589,6 +12589,43 @@
         <v>44300</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03016.xlsx
+++ b/data/03016.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12626,6 +12626,115 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I348" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>03016</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>CRG</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
